--- a/database/industries/ghand/ghesafha/product/quarterly.xlsx
+++ b/database/industries/ghand/ghesafha/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3F04C-F253-4EDF-9694-243D6EE7B9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قصفها-قنداصفهان‌</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تفاله خشک</t>
   </si>
   <si>
@@ -160,6 +161,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>یونیت / ریال</t>
@@ -174,7 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +348,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -356,7 +360,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -403,6 +407,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -438,6 +459,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,17 +627,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,7 +647,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +659,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -633,7 +671,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -643,7 +681,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -655,7 +693,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -667,7 +705,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -677,7 +715,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -699,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -709,7 +747,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -718,22 +756,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2533</v>
+        <v>18444</v>
       </c>
       <c r="F10" s="9">
-        <v>18444</v>
+        <v>-5323</v>
       </c>
       <c r="G10" s="9">
-        <v>-5323</v>
+        <v>6327</v>
       </c>
       <c r="H10" s="9">
-        <v>6327</v>
+        <v>3203</v>
       </c>
       <c r="I10" s="9">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18405</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -742,22 +780,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>4306</v>
+        <v>5795</v>
       </c>
       <c r="F11" s="11">
-        <v>5795</v>
+        <v>3493</v>
       </c>
       <c r="G11" s="11">
-        <v>3493</v>
+        <v>2335</v>
       </c>
       <c r="H11" s="11">
-        <v>2335</v>
+        <v>4813</v>
       </c>
       <c r="I11" s="11">
-        <v>4813</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -781,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -790,22 +828,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>32142</v>
+        <v>12407</v>
       </c>
       <c r="F13" s="11">
-        <v>12407</v>
+        <v>20620</v>
       </c>
       <c r="G13" s="11">
-        <v>20620</v>
+        <v>5475</v>
       </c>
       <c r="H13" s="11">
-        <v>5475</v>
+        <v>29728</v>
       </c>
       <c r="I13" s="11">
-        <v>29728</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -814,22 +852,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>5079</v>
+        <v>37307</v>
       </c>
       <c r="F14" s="9">
-        <v>37307</v>
+        <v>6702</v>
       </c>
       <c r="G14" s="9">
-        <v>6702</v>
+        <v>11356</v>
       </c>
       <c r="H14" s="9">
-        <v>11356</v>
+        <v>4447</v>
       </c>
       <c r="I14" s="9">
-        <v>4447</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36903</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -853,7 +891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -877,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -888,11 +926,11 @@
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>17</v>
@@ -901,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -912,11 +950,11 @@
       <c r="E18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>17</v>
@@ -925,7 +963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -947,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -971,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -995,7 +1033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1019,7 +1057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1030,11 +1068,11 @@
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>17</v>
@@ -1043,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1078,20 +1116,20 @@
       <c r="E25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>17</v>
+      <c r="F25" s="11">
+        <v>10723</v>
       </c>
       <c r="G25" s="11">
-        <v>10723</v>
+        <v>121</v>
       </c>
       <c r="H25" s="11">
-        <v>121</v>
+        <v>-121</v>
       </c>
       <c r="I25" s="11">
-        <v>-121</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1115,7 +1153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1126,11 +1164,11 @@
       <c r="E27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>17</v>
+      <c r="F27" s="11">
+        <v>1075</v>
       </c>
       <c r="G27" s="11">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
@@ -1139,29 +1177,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>44060</v>
+        <v>73953</v>
       </c>
       <c r="F28" s="13">
-        <v>73953</v>
+        <v>37290</v>
       </c>
       <c r="G28" s="13">
-        <v>37290</v>
+        <v>25614</v>
       </c>
       <c r="H28" s="13">
-        <v>25614</v>
+        <v>42070</v>
       </c>
       <c r="I28" s="13">
-        <v>42070</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66481</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1171,7 +1209,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1181,7 +1219,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1191,7 +1229,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
@@ -1213,7 +1251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1223,7 +1261,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
@@ -1232,22 +1270,22 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>7590</v>
-      </c>
-      <c r="F34" s="9">
         <v>13186</v>
       </c>
+      <c r="F34" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G34" s="9">
-        <v>3130</v>
+        <v>3257</v>
       </c>
       <c r="H34" s="9">
-        <v>3257</v>
+        <v>2583</v>
       </c>
       <c r="I34" s="9">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15473</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>12</v>
       </c>
@@ -1256,22 +1294,22 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>5926</v>
-      </c>
-      <c r="F35" s="11">
         <v>5920</v>
       </c>
+      <c r="F35" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G35" s="11">
-        <v>3542</v>
+        <v>1928</v>
       </c>
       <c r="H35" s="11">
-        <v>1928</v>
+        <v>5087</v>
       </c>
       <c r="I35" s="11">
-        <v>5087</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>13</v>
       </c>
@@ -1282,20 +1320,20 @@
       <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="F36" s="9">
-        <v>0</v>
+      <c r="F36" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G36" s="9">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>14</v>
       </c>
@@ -1304,22 +1342,22 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>32122</v>
-      </c>
-      <c r="F37" s="11">
         <v>12407</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G37" s="11">
-        <v>20620</v>
+        <v>5475</v>
       </c>
       <c r="H37" s="11">
-        <v>5475</v>
+        <v>29728</v>
       </c>
       <c r="I37" s="11">
-        <v>29728</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>15</v>
       </c>
@@ -1328,22 +1366,22 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>17900</v>
-      </c>
-      <c r="F38" s="9">
         <v>30534</v>
       </c>
+      <c r="F38" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G38" s="9">
-        <v>14773</v>
+        <v>5154</v>
       </c>
       <c r="H38" s="9">
-        <v>5154</v>
+        <v>8193</v>
       </c>
       <c r="I38" s="9">
-        <v>8193</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21617</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>32</v>
       </c>
@@ -1367,7 +1405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
@@ -1400,13 +1438,13 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>1</v>
-      </c>
-      <c r="F41" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G41" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="11">
         <v>0</v>
@@ -1415,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
@@ -1439,7 +1477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -1450,11 +1488,11 @@
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>17</v>
@@ -1463,7 +1501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -1487,7 +1525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>36</v>
       </c>
@@ -1511,7 +1549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>20</v>
       </c>
@@ -1522,11 +1560,11 @@
       <c r="E46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>17</v>
@@ -1535,7 +1573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>21</v>
       </c>
@@ -1544,8 +1582,8 @@
       <c r="E47" s="11">
         <v>0</v>
       </c>
-      <c r="F47" s="11">
-        <v>0</v>
+      <c r="F47" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -1557,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>39</v>
       </c>
@@ -1605,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>40</v>
       </c>
@@ -1629,7 +1667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>22</v>
       </c>
@@ -1653,7 +1691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>23</v>
       </c>
@@ -1677,7 +1715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>25</v>
       </c>
@@ -1712,11 +1750,11 @@
       <c r="E54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>17</v>
@@ -1725,7 +1763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>26</v>
       </c>
@@ -1749,7 +1787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>27</v>
       </c>
@@ -1764,16 +1802,16 @@
         <v>17</v>
       </c>
       <c r="G56" s="9">
-        <v>10723</v>
+        <v>121</v>
       </c>
       <c r="H56" s="9">
-        <v>121</v>
+        <v>2725</v>
       </c>
       <c r="I56" s="9">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
@@ -1788,16 +1826,16 @@
         <v>17</v>
       </c>
       <c r="G57" s="11">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="H57" s="11">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="I57" s="11">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>41</v>
       </c>
@@ -1821,29 +1859,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>63539</v>
+        <v>62047</v>
       </c>
       <c r="F59" s="15">
-        <v>62047</v>
+        <v>0</v>
       </c>
       <c r="G59" s="15">
-        <v>53889</v>
+        <v>15936</v>
       </c>
       <c r="H59" s="15">
-        <v>15936</v>
+        <v>48600</v>
       </c>
       <c r="I59" s="15">
-        <v>48600</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48402</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1853,7 +1891,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1863,7 +1901,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1873,7 +1911,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>42</v>
       </c>
@@ -1895,7 +1933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1905,7 +1943,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>10</v>
       </c>
@@ -1914,22 +1952,22 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>207112</v>
-      </c>
-      <c r="F65" s="9">
         <v>514942</v>
       </c>
+      <c r="F65" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G65" s="9">
-        <v>333645</v>
+        <v>265156</v>
       </c>
       <c r="H65" s="9">
-        <v>265156</v>
+        <v>214456</v>
       </c>
       <c r="I65" s="9">
-        <v>214456</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1315169</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>12</v>
       </c>
@@ -1938,22 +1976,22 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>208509</v>
-      </c>
-      <c r="F66" s="11">
         <v>196582</v>
       </c>
+      <c r="F66" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G66" s="11">
-        <v>126896</v>
+        <v>104192</v>
       </c>
       <c r="H66" s="11">
-        <v>104192</v>
+        <v>281146</v>
       </c>
       <c r="I66" s="11">
-        <v>281146</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>335778</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>13</v>
       </c>
@@ -1964,20 +2002,20 @@
       <c r="E67" s="9">
         <v>0</v>
       </c>
-      <c r="F67" s="9">
-        <v>0</v>
+      <c r="F67" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G67" s="9">
-        <v>3405</v>
+        <v>70</v>
       </c>
       <c r="H67" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I67" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
@@ -1986,22 +2024,22 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>121185</v>
-      </c>
-      <c r="F68" s="11">
         <v>49628</v>
       </c>
+      <c r="F68" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G68" s="11">
-        <v>82508</v>
+        <v>33823</v>
       </c>
       <c r="H68" s="11">
-        <v>33823</v>
+        <v>210612</v>
       </c>
       <c r="I68" s="11">
-        <v>210612</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>15</v>
       </c>
@@ -2010,22 +2048,22 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>2163046</v>
-      </c>
-      <c r="F69" s="9">
         <v>3755416</v>
       </c>
+      <c r="F69" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G69" s="9">
-        <v>2009054</v>
+        <v>925538</v>
       </c>
       <c r="H69" s="9">
-        <v>925538</v>
+        <v>1506860</v>
       </c>
       <c r="I69" s="9">
-        <v>1506860</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3827528</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
@@ -2049,7 +2087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>16</v>
       </c>
@@ -2073,7 +2111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>18</v>
       </c>
@@ -2082,22 +2120,22 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>27</v>
-      </c>
-      <c r="F72" s="11">
         <v>32</v>
       </c>
+      <c r="F72" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G72" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H72" s="11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I72" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>33</v>
       </c>
@@ -2121,7 +2159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>19</v>
       </c>
@@ -2132,11 +2170,11 @@
       <c r="E74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>17</v>
@@ -2145,7 +2183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>35</v>
       </c>
@@ -2169,7 +2207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>36</v>
       </c>
@@ -2193,7 +2231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>20</v>
       </c>
@@ -2204,11 +2242,11 @@
       <c r="E77" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="9">
-        <v>0</v>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>17</v>
@@ -2217,7 +2255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>21</v>
       </c>
@@ -2228,8 +2266,8 @@
       <c r="E78" s="11">
         <v>0</v>
       </c>
-      <c r="F78" s="11">
-        <v>0</v>
+      <c r="F78" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G78" s="11">
         <v>0</v>
@@ -2241,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>37</v>
       </c>
@@ -2265,7 +2303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>39</v>
       </c>
@@ -2289,7 +2327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>40</v>
       </c>
@@ -2313,7 +2351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -2337,7 +2375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>23</v>
       </c>
@@ -2361,7 +2399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>24</v>
       </c>
@@ -2385,7 +2423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>25</v>
       </c>
@@ -2396,11 +2434,11 @@
       <c r="E85" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="9">
-        <v>0</v>
+      <c r="F85" s="9">
+        <v>0</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>17</v>
@@ -2409,7 +2447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
@@ -2433,7 +2471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>27</v>
       </c>
@@ -2448,16 +2486,16 @@
         <v>17</v>
       </c>
       <c r="G87" s="9">
-        <v>72459</v>
+        <v>962</v>
       </c>
       <c r="H87" s="9">
-        <v>962</v>
+        <v>21792</v>
       </c>
       <c r="I87" s="9">
-        <v>21792</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>29</v>
       </c>
@@ -2472,16 +2510,16 @@
         <v>17</v>
       </c>
       <c r="G88" s="11">
-        <v>20874</v>
+        <v>0</v>
       </c>
       <c r="H88" s="11">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="I88" s="11">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>41</v>
       </c>
@@ -2505,29 +2543,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>2699879</v>
+        <v>4516600</v>
       </c>
       <c r="F90" s="15">
-        <v>4516600</v>
+        <v>0</v>
       </c>
       <c r="G90" s="15">
-        <v>2648847</v>
+        <v>1329741</v>
       </c>
       <c r="H90" s="15">
-        <v>1329741</v>
+        <v>2241159</v>
       </c>
       <c r="I90" s="15">
-        <v>2241159</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5524043</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2537,7 +2575,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2547,7 +2585,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2557,7 +2595,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>44</v>
       </c>
@@ -2579,7 +2617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2589,7 +2627,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>10</v>
       </c>
@@ -2598,22 +2636,22 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>29615563</v>
+        <v>51602266</v>
       </c>
       <c r="F96" s="9">
-        <v>51602266</v>
+        <v>106595847</v>
       </c>
       <c r="G96" s="9">
-        <v>106595847</v>
+        <v>81411115</v>
       </c>
       <c r="H96" s="9">
-        <v>81411115</v>
+        <v>83025939</v>
       </c>
       <c r="I96" s="9">
-        <v>83025939</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84997673</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>12</v>
       </c>
@@ -2622,22 +2660,22 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>35185454</v>
+        <v>33206419</v>
       </c>
       <c r="F97" s="11">
-        <v>33206419</v>
+        <v>35826087</v>
       </c>
       <c r="G97" s="11">
-        <v>35826087</v>
+        <v>54041494</v>
       </c>
       <c r="H97" s="11">
-        <v>54041494</v>
+        <v>55267545</v>
       </c>
       <c r="I97" s="11">
-        <v>55267545</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56253644</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>13</v>
       </c>
@@ -2648,20 +2686,20 @@
       <c r="E98" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F98" s="9" t="s">
-        <v>17</v>
+      <c r="F98" s="9">
+        <v>126111111</v>
       </c>
       <c r="G98" s="9">
-        <v>126111111</v>
-      </c>
-      <c r="H98" s="9">
         <v>70000000</v>
       </c>
+      <c r="H98" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I98" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>14</v>
       </c>
@@ -2670,22 +2708,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>2390850</v>
+        <v>4000000</v>
       </c>
       <c r="F99" s="11">
-        <v>4000000</v>
+        <v>4001358</v>
       </c>
       <c r="G99" s="11">
-        <v>4001358</v>
+        <v>6177717</v>
       </c>
       <c r="H99" s="11">
-        <v>6177717</v>
+        <v>7084634</v>
       </c>
       <c r="I99" s="11">
-        <v>7084634</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8280183</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>15</v>
       </c>
@@ -2694,22 +2732,22 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>120986463</v>
+        <v>124205454</v>
       </c>
       <c r="F100" s="9">
-        <v>124205454</v>
+        <v>135994991</v>
       </c>
       <c r="G100" s="9">
-        <v>135994991</v>
+        <v>179576640</v>
       </c>
       <c r="H100" s="9">
-        <v>179576640</v>
+        <v>183920420</v>
       </c>
       <c r="I100" s="9">
-        <v>183920420</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177061017</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>32</v>
       </c>
@@ -2733,7 +2771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>16</v>
       </c>
@@ -2757,7 +2795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>18</v>
       </c>
@@ -2765,15 +2803,15 @@
         <v>45</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11">
-        <v>27000000</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" s="11">
+      <c r="E103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="11">
         <v>-6000000</v>
       </c>
+      <c r="G103" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H103" s="11" t="s">
         <v>17</v>
       </c>
@@ -2781,7 +2819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>33</v>
       </c>
@@ -2805,7 +2843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>19</v>
       </c>
@@ -2829,7 +2867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>35</v>
       </c>
@@ -2853,7 +2891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>36</v>
       </c>
@@ -2877,7 +2915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>20</v>
       </c>
@@ -2901,12 +2939,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
@@ -2925,12 +2963,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
@@ -2949,7 +2987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>39</v>
       </c>
@@ -2973,7 +3011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>40</v>
       </c>
@@ -2997,7 +3035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>22</v>
       </c>
@@ -3021,7 +3059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>23</v>
       </c>
@@ -3045,7 +3083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>24</v>
       </c>
@@ -3069,7 +3107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>25</v>
       </c>
@@ -3093,7 +3131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>26</v>
       </c>
@@ -3117,7 +3155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>27</v>
       </c>
@@ -3128,20 +3166,20 @@
       <c r="E118" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>17</v>
+      <c r="F118" s="9">
+        <v>6757344</v>
       </c>
       <c r="G118" s="9">
-        <v>6757344</v>
+        <v>7950413</v>
       </c>
       <c r="H118" s="9">
-        <v>7950413</v>
-      </c>
-      <c r="I118" s="9">
         <v>7997064</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I118" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>29</v>
       </c>
@@ -3152,20 +3190,20 @@
       <c r="E119" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" s="11">
+      <c r="F119" s="11">
         <v>19417674</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>17</v>
+      <c r="G119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="11">
+        <v>22031690</v>
       </c>
       <c r="I119" s="11">
-        <v>22031690</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21910000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>41</v>
       </c>
@@ -3189,7 +3227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3199,7 +3237,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3209,7 +3247,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3219,9 +3257,9 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3241,7 +3279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3251,7 +3289,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>10</v>
       </c>
@@ -3260,22 +3298,22 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
-        <v>-246346</v>
+        <v>-245999</v>
       </c>
       <c r="F126" s="9">
-        <v>-245999</v>
+        <v>-124827</v>
       </c>
       <c r="G126" s="9">
-        <v>-124827</v>
+        <v>-118678</v>
       </c>
       <c r="H126" s="9">
-        <v>-118678</v>
+        <v>-186674</v>
       </c>
       <c r="I126" s="9">
-        <v>-186674</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-637689</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>12</v>
       </c>
@@ -3284,22 +3322,22 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>-112963</v>
+        <v>-116285</v>
       </c>
       <c r="F127" s="11">
-        <v>-116285</v>
+        <v>-45082</v>
       </c>
       <c r="G127" s="11">
-        <v>-45082</v>
+        <v>-38086</v>
       </c>
       <c r="H127" s="11">
-        <v>-38086</v>
+        <v>-182388</v>
       </c>
       <c r="I127" s="11">
-        <v>-182388</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-219483</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>13</v>
       </c>
@@ -3311,19 +3349,19 @@
         <v>0</v>
       </c>
       <c r="F128" s="9">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="G128" s="9">
-        <v>-1060</v>
+        <v>-21</v>
       </c>
       <c r="H128" s="9">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="I128" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>14</v>
       </c>
@@ -3332,22 +3370,22 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
-        <v>-167378</v>
+        <v>-59707</v>
       </c>
       <c r="F129" s="11">
-        <v>-59707</v>
+        <v>-211774</v>
       </c>
       <c r="G129" s="11">
-        <v>-211774</v>
+        <v>-63526</v>
       </c>
       <c r="H129" s="11">
-        <v>-63526</v>
+        <v>-274301</v>
       </c>
       <c r="I129" s="11">
-        <v>-274301</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3012</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>15</v>
       </c>
@@ -3356,22 +3394,22 @@
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9">
-        <v>-1808661</v>
+        <v>-3105618</v>
       </c>
       <c r="F130" s="9">
-        <v>-3105618</v>
+        <v>-1838925</v>
       </c>
       <c r="G130" s="9">
-        <v>-1838925</v>
+        <v>-926724</v>
       </c>
       <c r="H130" s="9">
-        <v>-926724</v>
+        <v>-1240727</v>
       </c>
       <c r="I130" s="9">
-        <v>-1240727</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3558804</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>18</v>
       </c>
@@ -3383,19 +3421,19 @@
         <v>-4</v>
       </c>
       <c r="F131" s="11">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G131" s="11">
         <v>0</v>
       </c>
       <c r="H131" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I131" s="11">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>33</v>
       </c>
@@ -3419,7 +3457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>19</v>
       </c>
@@ -3430,11 +3468,11 @@
       <c r="E133" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" s="11">
-        <v>0</v>
+      <c r="F133" s="11">
+        <v>0</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H133" s="11" t="s">
         <v>17</v>
@@ -3443,7 +3481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>20</v>
       </c>
@@ -3454,11 +3492,11 @@
       <c r="E134" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F134" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" s="9">
-        <v>0</v>
+      <c r="F134" s="9">
+        <v>0</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>17</v>
@@ -3467,7 +3505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>21</v>
       </c>
@@ -3491,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>25</v>
       </c>
@@ -3502,11 +3540,11 @@
       <c r="E136" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F136" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" s="9">
-        <v>0</v>
+      <c r="F136" s="9">
+        <v>0</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>17</v>
@@ -3515,7 +3553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>26</v>
       </c>
@@ -3539,7 +3577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>27</v>
       </c>
@@ -3550,20 +3588,20 @@
       <c r="E138" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F138" s="9" t="s">
-        <v>17</v>
+      <c r="F138" s="9">
+        <v>-311730</v>
       </c>
       <c r="G138" s="9">
-        <v>-311730</v>
+        <v>-4409</v>
       </c>
       <c r="H138" s="9">
-        <v>-4409</v>
+        <v>-144398</v>
       </c>
       <c r="I138" s="9">
-        <v>-144398</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22879</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>29</v>
       </c>
@@ -3574,20 +3612,20 @@
       <c r="E139" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>17</v>
+      <c r="F139" s="11">
+        <v>-119437</v>
       </c>
       <c r="G139" s="11">
-        <v>-119437</v>
+        <v>0</v>
       </c>
       <c r="H139" s="11">
-        <v>0</v>
+        <v>-46119</v>
       </c>
       <c r="I139" s="11">
-        <v>-46119</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-16771</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>41</v>
       </c>
@@ -3611,29 +3649,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15">
-        <v>-2335352</v>
+        <v>-3527613</v>
       </c>
       <c r="F141" s="15">
-        <v>-3527613</v>
+        <v>-2652835</v>
       </c>
       <c r="G141" s="15">
-        <v>-2652835</v>
+        <v>-1151444</v>
       </c>
       <c r="H141" s="15">
-        <v>-1151444</v>
+        <v>-2074610</v>
       </c>
       <c r="I141" s="15">
-        <v>-2074610</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4412877</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3643,7 +3681,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3653,7 +3691,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3663,9 +3701,9 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3685,7 +3723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3695,7 +3733,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>10</v>
       </c>
@@ -3704,22 +3742,22 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>-41584</v>
+        <v>245977</v>
       </c>
       <c r="F147" s="9">
-        <v>245977</v>
+        <v>208818</v>
       </c>
       <c r="G147" s="9">
-        <v>208818</v>
+        <v>146478</v>
       </c>
       <c r="H147" s="9">
-        <v>146478</v>
+        <v>27782</v>
       </c>
       <c r="I147" s="9">
-        <v>27782</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>677480</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>12</v>
       </c>
@@ -3728,22 +3766,22 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>95546</v>
+        <v>80297</v>
       </c>
       <c r="F148" s="11">
-        <v>80297</v>
+        <v>81814</v>
       </c>
       <c r="G148" s="11">
-        <v>81814</v>
+        <v>66106</v>
       </c>
       <c r="H148" s="11">
-        <v>66106</v>
+        <v>98758</v>
       </c>
       <c r="I148" s="11">
-        <v>98758</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116295</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>13</v>
       </c>
@@ -3755,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="F149" s="9">
-        <v>0</v>
+        <v>2345</v>
       </c>
       <c r="G149" s="9">
-        <v>2345</v>
+        <v>49</v>
       </c>
       <c r="H149" s="9">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I149" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>14</v>
       </c>
@@ -3776,22 +3814,22 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>-46193</v>
+        <v>-10079</v>
       </c>
       <c r="F150" s="11">
-        <v>-10079</v>
+        <v>-129266</v>
       </c>
       <c r="G150" s="11">
-        <v>-129266</v>
+        <v>-29703</v>
       </c>
       <c r="H150" s="11">
-        <v>-29703</v>
+        <v>-63689</v>
       </c>
       <c r="I150" s="11">
-        <v>-63689</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>15</v>
       </c>
@@ -3800,22 +3838,22 @@
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
-        <v>354214</v>
+        <v>643151</v>
       </c>
       <c r="F151" s="9">
-        <v>643151</v>
+        <v>170129</v>
       </c>
       <c r="G151" s="9">
-        <v>170129</v>
+        <v>-1186</v>
       </c>
       <c r="H151" s="9">
-        <v>-1186</v>
+        <v>266133</v>
       </c>
       <c r="I151" s="9">
-        <v>266133</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+        <v>268724</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>18</v>
       </c>
@@ -3824,22 +3862,22 @@
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F152" s="11">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G152" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H152" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I152" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>33</v>
       </c>
@@ -3863,7 +3901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>19</v>
       </c>
@@ -3874,11 +3912,11 @@
       <c r="E154" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F154" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" s="11">
-        <v>0</v>
+      <c r="F154" s="11">
+        <v>0</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H154" s="11" t="s">
         <v>17</v>
@@ -3887,7 +3925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>20</v>
       </c>
@@ -3898,11 +3936,11 @@
       <c r="E155" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F155" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" s="9">
-        <v>0</v>
+      <c r="F155" s="9">
+        <v>0</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>17</v>
@@ -3911,7 +3949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>21</v>
       </c>
@@ -3935,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>25</v>
       </c>
@@ -3946,11 +3984,11 @@
       <c r="E157" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" s="9">
-        <v>0</v>
+      <c r="F157" s="9">
+        <v>0</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>17</v>
@@ -3959,7 +3997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>26</v>
       </c>
@@ -3983,7 +4021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>27</v>
       </c>
@@ -3994,20 +4032,20 @@
       <c r="E159" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F159" s="9" t="s">
-        <v>17</v>
+      <c r="F159" s="9">
+        <v>-239271</v>
       </c>
       <c r="G159" s="9">
-        <v>-239271</v>
+        <v>-3447</v>
       </c>
       <c r="H159" s="9">
-        <v>-3447</v>
+        <v>-122606</v>
       </c>
       <c r="I159" s="9">
-        <v>-122606</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22879</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>29</v>
       </c>
@@ -4018,20 +4056,20 @@
       <c r="E160" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F160" s="11" t="s">
-        <v>17</v>
+      <c r="F160" s="11">
+        <v>-98563</v>
       </c>
       <c r="G160" s="11">
-        <v>-98563</v>
+        <v>0</v>
       </c>
       <c r="H160" s="11">
-        <v>0</v>
+        <v>-39862</v>
       </c>
       <c r="I160" s="11">
-        <v>-39862</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-14580</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>41</v>
       </c>
@@ -4055,26 +4093,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15">
-        <v>362006</v>
+        <v>959374</v>
       </c>
       <c r="F162" s="15">
-        <v>959374</v>
+        <v>-3988</v>
       </c>
       <c r="G162" s="15">
-        <v>-3988</v>
+        <v>178297</v>
       </c>
       <c r="H162" s="15">
-        <v>178297</v>
+        <v>166549</v>
       </c>
       <c r="I162" s="15">
-        <v>166549</v>
+        <v>1111166</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghand/ghesafha/product/quarterly.xlsx
+++ b/database/industries/ghand/ghesafha/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3F04C-F253-4EDF-9694-243D6EE7B9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83772E-901F-4CC7-8531-A51B2FEA001D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -628,16 +643,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I162"/>
+  <dimension ref="B1:N162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -646,8 +661,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,8 +678,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,8 +695,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -680,8 +710,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -692,8 +727,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -704,8 +744,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -714,8 +759,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,8 +786,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -746,61 +811,96 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1678</v>
+      </c>
+      <c r="F10" s="9">
+        <v>17016</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3338</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8833</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2533</v>
+      </c>
+      <c r="J10" s="9">
         <v>18444</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>-5323</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>6327</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>3203</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>18405</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>744</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5933</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3793</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4306</v>
+      </c>
+      <c r="J11" s="11">
         <v>5795</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>3493</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>2335</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>4813</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>5930</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
@@ -818,85 +918,145 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>9086</v>
+      </c>
+      <c r="F13" s="11">
+        <v>16847</v>
+      </c>
+      <c r="G13" s="11">
+        <v>22156</v>
+      </c>
+      <c r="H13" s="11">
+        <v>18545</v>
+      </c>
+      <c r="I13" s="11">
+        <v>32142</v>
+      </c>
+      <c r="J13" s="11">
         <v>12407</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>20620</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>5475</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>29728</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>5243</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>3576</v>
+      </c>
+      <c r="F14" s="9">
+        <v>36064</v>
+      </c>
+      <c r="G14" s="9">
+        <v>7091</v>
+      </c>
+      <c r="H14" s="9">
+        <v>16174</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5079</v>
+      </c>
+      <c r="J14" s="9">
         <v>37307</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>6702</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>11356</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>4447</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>36903</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
@@ -914,292 +1074,487 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
+      <c r="E19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="11">
+        <v>22</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="11">
         <v>10723</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>121</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>-121</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="11">
+        <v>22</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="11">
         <v>1075</v>
       </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
+        <v>15084</v>
+      </c>
+      <c r="F28" s="13">
+        <v>75860</v>
+      </c>
+      <c r="G28" s="13">
+        <v>34875</v>
+      </c>
+      <c r="H28" s="13">
+        <v>47345</v>
+      </c>
+      <c r="I28" s="13">
+        <v>44060</v>
+      </c>
+      <c r="J28" s="13">
         <v>73953</v>
       </c>
-      <c r="F28" s="13">
+      <c r="K28" s="13">
         <v>37290</v>
       </c>
-      <c r="G28" s="13">
+      <c r="L28" s="13">
         <v>25614</v>
       </c>
-      <c r="H28" s="13">
+      <c r="M28" s="13">
         <v>42070</v>
       </c>
-      <c r="I28" s="13">
+      <c r="N28" s="13">
         <v>66481</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1208,8 +1563,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1218,8 +1578,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1228,10 +1593,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1250,8 +1620,23 @@
       <c r="I32" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1260,628 +1645,1023 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
+        <v>7417</v>
+      </c>
+      <c r="F34" s="9">
+        <v>13963</v>
+      </c>
+      <c r="G34" s="9">
+        <v>6881</v>
+      </c>
+      <c r="H34" s="9">
+        <v>4668</v>
+      </c>
+      <c r="I34" s="9">
+        <v>7590</v>
+      </c>
+      <c r="J34" s="9">
         <v>13186</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="K34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="9">
+        <v>3257</v>
+      </c>
+      <c r="M34" s="9">
+        <v>2583</v>
+      </c>
+      <c r="N34" s="9">
+        <v>15473</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="9">
-        <v>3257</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2583</v>
-      </c>
-      <c r="I34" s="9">
-        <v>15473</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>2127</v>
+      </c>
+      <c r="F35" s="11">
+        <v>4601</v>
+      </c>
+      <c r="G35" s="11">
+        <v>3615</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1686</v>
+      </c>
+      <c r="I35" s="11">
+        <v>5926</v>
+      </c>
+      <c r="J35" s="11">
         <v>5920</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="K35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="11">
         <v>1928</v>
       </c>
-      <c r="H35" s="11">
+      <c r="M35" s="11">
         <v>5087</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>5969</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>17</v>
+      <c r="F36" s="9">
+        <v>0</v>
       </c>
       <c r="G36" s="9">
+        <v>840</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>-51767</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>32122</v>
+      </c>
+      <c r="J37" s="11">
         <v>12407</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="K37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="11">
         <v>5475</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>29728</v>
       </c>
-      <c r="I37" s="11">
+      <c r="N37" s="11">
         <v>5243</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
+        <v>10931</v>
+      </c>
+      <c r="F38" s="9">
+        <v>26411</v>
+      </c>
+      <c r="G38" s="9">
+        <v>14637</v>
+      </c>
+      <c r="H38" s="9">
+        <v>5853</v>
+      </c>
+      <c r="I38" s="9">
+        <v>17900</v>
+      </c>
+      <c r="J38" s="9">
         <v>30534</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="K38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="9">
         <v>5154</v>
       </c>
-      <c r="H38" s="9">
+      <c r="M38" s="9">
         <v>8193</v>
       </c>
-      <c r="I38" s="9">
+      <c r="N38" s="9">
         <v>21617</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
       </c>
       <c r="G41" s="11">
         <v>0</v>
       </c>
-      <c r="H41" s="11">
-        <v>0</v>
+      <c r="H41" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I41" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>17</v>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
         <v>0</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>17</v>
+      <c r="F47" s="11">
+        <v>0</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="H47" s="11">
-        <v>0</v>
+      <c r="H47" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I47" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>17</v>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="9">
+        <v>22</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="9">
         <v>121</v>
       </c>
-      <c r="H56" s="9">
+      <c r="M56" s="9">
         <v>2725</v>
       </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
-      </c>
-      <c r="H57" s="11">
+        <v>22</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
         <v>284</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>20476</v>
+      </c>
+      <c r="F59" s="15">
+        <v>44975</v>
+      </c>
+      <c r="G59" s="15">
+        <v>-25794</v>
+      </c>
+      <c r="H59" s="15">
+        <v>12207</v>
+      </c>
+      <c r="I59" s="15">
+        <v>63539</v>
+      </c>
+      <c r="J59" s="15">
         <v>62047</v>
       </c>
-      <c r="F59" s="15">
-        <v>0</v>
-      </c>
-      <c r="G59" s="15">
+      <c r="K59" s="15">
+        <v>0</v>
+      </c>
+      <c r="L59" s="15">
         <v>15936</v>
       </c>
-      <c r="H59" s="15">
+      <c r="M59" s="15">
         <v>48600</v>
       </c>
-      <c r="I59" s="15">
+      <c r="N59" s="15">
         <v>48402</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1890,8 +2670,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1900,8 +2685,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1910,10 +2700,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1932,8 +2727,23 @@
       <c r="I63" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1942,630 +2752,1025 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>154876</v>
+      </c>
+      <c r="F65" s="9">
+        <v>386286</v>
+      </c>
+      <c r="G65" s="9">
+        <v>41548</v>
+      </c>
+      <c r="H65" s="9">
+        <v>189271</v>
+      </c>
+      <c r="I65" s="9">
+        <v>207112</v>
+      </c>
+      <c r="J65" s="9">
         <v>514942</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="K65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="9">
+        <v>265156</v>
+      </c>
+      <c r="M65" s="9">
+        <v>214456</v>
+      </c>
+      <c r="N65" s="9">
+        <v>1315169</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="9">
-        <v>265156</v>
-      </c>
-      <c r="H65" s="9">
-        <v>214456</v>
-      </c>
-      <c r="I65" s="9">
-        <v>1315169</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="C66" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>55228</v>
+      </c>
+      <c r="F66" s="11">
+        <v>126631</v>
+      </c>
+      <c r="G66" s="11">
+        <v>113174</v>
+      </c>
+      <c r="H66" s="11">
+        <v>65589</v>
+      </c>
+      <c r="I66" s="11">
+        <v>208509</v>
+      </c>
+      <c r="J66" s="11">
         <v>196582</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="11">
+      <c r="K66" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="11">
         <v>104192</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>281146</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>335778</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
         <v>0</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>17</v>
+      <c r="F67" s="9">
+        <v>0</v>
       </c>
       <c r="G67" s="9">
+        <v>33980</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="9">
         <v>70</v>
       </c>
-      <c r="H67" s="9">
-        <v>0</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>20726</v>
+      </c>
+      <c r="F68" s="11">
+        <v>36562</v>
+      </c>
+      <c r="G68" s="11">
+        <v>48080</v>
+      </c>
+      <c r="H68" s="11">
+        <v>66296</v>
+      </c>
+      <c r="I68" s="11">
+        <v>121185</v>
+      </c>
+      <c r="J68" s="11">
         <v>49628</v>
       </c>
-      <c r="F68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="11">
+      <c r="K68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="11">
         <v>33823</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>210612</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>43413</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>700588</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1721684</v>
+      </c>
+      <c r="G69" s="9">
+        <v>929333</v>
+      </c>
+      <c r="H69" s="9">
+        <v>502357</v>
+      </c>
+      <c r="I69" s="9">
+        <v>2163046</v>
+      </c>
+      <c r="J69" s="9">
         <v>3755416</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="9">
+      <c r="K69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="9">
         <v>925538</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>1506860</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>3827528</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>23</v>
+      </c>
+      <c r="F72" s="11">
+        <v>19</v>
+      </c>
+      <c r="G72" s="11">
+        <v>8</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="11">
+        <v>27</v>
+      </c>
+      <c r="J72" s="11">
         <v>32</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="11">
-        <v>0</v>
-      </c>
-      <c r="H72" s="11">
+      <c r="K72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11">
         <v>36</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>-36</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>17</v>
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="9">
+        <v>0</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
         <v>0</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>17</v>
+      <c r="F78" s="11">
+        <v>0</v>
       </c>
       <c r="G78" s="11">
         <v>0</v>
       </c>
-      <c r="H78" s="11">
-        <v>0</v>
+      <c r="H78" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I78" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="11">
+        <v>0</v>
+      </c>
+      <c r="M78" s="11">
+        <v>0</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="9">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>17</v>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="9">
+        <v>22</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="9">
         <v>962</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>21792</v>
       </c>
-      <c r="I87" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
+        <v>22</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="11">
+        <v>0</v>
+      </c>
+      <c r="M88" s="11">
         <v>6257</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>2191</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
+        <v>931441</v>
+      </c>
+      <c r="F90" s="15">
+        <v>2271182</v>
+      </c>
+      <c r="G90" s="15">
+        <v>1166123</v>
+      </c>
+      <c r="H90" s="15">
+        <v>823513</v>
+      </c>
+      <c r="I90" s="15">
+        <v>2699879</v>
+      </c>
+      <c r="J90" s="15">
         <v>4516600</v>
       </c>
-      <c r="F90" s="15">
-        <v>0</v>
-      </c>
-      <c r="G90" s="15">
+      <c r="K90" s="15">
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
         <v>1329741</v>
       </c>
-      <c r="H90" s="15">
+      <c r="M90" s="15">
         <v>2241159</v>
       </c>
-      <c r="I90" s="15">
+      <c r="N90" s="15">
         <v>5524043</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2574,8 +3779,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2584,8 +3794,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2594,10 +3809,15 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2616,8 +3836,23 @@
       <c r="I94" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2626,608 +3861,988 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
+        <v>20881219</v>
+      </c>
+      <c r="F96" s="9">
+        <v>27664972</v>
+      </c>
+      <c r="G96" s="9">
+        <v>6038076</v>
+      </c>
+      <c r="H96" s="9">
+        <v>40546487</v>
+      </c>
+      <c r="I96" s="9">
+        <v>29615563</v>
+      </c>
+      <c r="J96" s="9">
         <v>51602266</v>
       </c>
-      <c r="F96" s="9">
+      <c r="K96" s="9">
         <v>106595847</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>81411115</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>83025939</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>84997673</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>25965209</v>
+      </c>
+      <c r="F97" s="11">
+        <v>27522495</v>
+      </c>
+      <c r="G97" s="11">
+        <v>31306777</v>
+      </c>
+      <c r="H97" s="11">
+        <v>38902135</v>
+      </c>
+      <c r="I97" s="11">
+        <v>35185454</v>
+      </c>
+      <c r="J97" s="11">
         <v>33206419</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>35826087</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>54041494</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>55267545</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>56253644</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="9">
+        <v>22</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="9">
+        <v>40452381</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" s="9">
         <v>126111111</v>
       </c>
-      <c r="G98" s="9">
+      <c r="L98" s="9">
         <v>70000000</v>
       </c>
-      <c r="H98" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11">
+      <c r="E99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="11">
+        <v>2390850</v>
+      </c>
+      <c r="J99" s="11">
         <v>4000000</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>4001358</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>6177717</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>7084634</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>8280183</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
+        <v>64091849</v>
+      </c>
+      <c r="F100" s="9">
+        <v>65188141</v>
+      </c>
+      <c r="G100" s="9">
+        <v>63492041</v>
+      </c>
+      <c r="H100" s="9">
+        <v>85828977</v>
+      </c>
+      <c r="I100" s="9">
+        <v>120986463</v>
+      </c>
+      <c r="J100" s="9">
         <v>124205454</v>
       </c>
-      <c r="F100" s="9">
+      <c r="K100" s="9">
         <v>135994991</v>
       </c>
-      <c r="G100" s="9">
+      <c r="L100" s="9">
         <v>179576640</v>
       </c>
-      <c r="H100" s="9">
+      <c r="M100" s="9">
         <v>183920420</v>
       </c>
-      <c r="I100" s="9">
+      <c r="N100" s="9">
         <v>177061017</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N102" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="11">
+      <c r="E103" s="11">
+        <v>23000000</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="11">
+        <v>27000000</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="11">
         <v>-6000000</v>
       </c>
-      <c r="G103" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M112" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="9">
+        <v>22</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" s="9">
         <v>6757344</v>
       </c>
-      <c r="G118" s="9">
+      <c r="L118" s="9">
         <v>7950413</v>
       </c>
-      <c r="H118" s="9">
+      <c r="M118" s="9">
         <v>7997064</v>
       </c>
-      <c r="I118" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N118" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" s="11">
+        <v>22</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="11">
         <v>19417674</v>
       </c>
-      <c r="G119" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119" s="11">
+      <c r="L119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M119" s="11">
         <v>22031690</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>21910000</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3236,8 +4851,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3246,8 +4866,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3256,10 +4881,15 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3278,8 +4908,23 @@
       <c r="I124" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3288,229 +4933,369 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
+        <v>-123847</v>
+      </c>
+      <c r="F126" s="9">
+        <v>-200964</v>
+      </c>
+      <c r="G126" s="9">
+        <v>-115372</v>
+      </c>
+      <c r="H126" s="9">
+        <v>-94694</v>
+      </c>
+      <c r="I126" s="9">
+        <v>-246346</v>
+      </c>
+      <c r="J126" s="9">
         <v>-245999</v>
       </c>
-      <c r="F126" s="9">
+      <c r="K126" s="9">
         <v>-124827</v>
       </c>
-      <c r="G126" s="9">
+      <c r="L126" s="9">
         <v>-118678</v>
       </c>
-      <c r="H126" s="9">
+      <c r="M126" s="9">
         <v>-186674</v>
       </c>
-      <c r="I126" s="9">
+      <c r="N126" s="9">
         <v>-637689</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
+        <v>-24999</v>
+      </c>
+      <c r="F127" s="11">
+        <v>-54699</v>
+      </c>
+      <c r="G127" s="11">
+        <v>-17775</v>
+      </c>
+      <c r="H127" s="11">
+        <v>-12519</v>
+      </c>
+      <c r="I127" s="11">
+        <v>-112963</v>
+      </c>
+      <c r="J127" s="11">
         <v>-116285</v>
       </c>
-      <c r="F127" s="11">
+      <c r="K127" s="11">
         <v>-45082</v>
       </c>
-      <c r="G127" s="11">
+      <c r="L127" s="11">
         <v>-38086</v>
       </c>
-      <c r="H127" s="11">
+      <c r="M127" s="11">
         <v>-182388</v>
       </c>
-      <c r="I127" s="11">
+      <c r="N127" s="11">
         <v>-219483</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9">
         <v>0</v>
       </c>
       <c r="F128" s="9">
+        <v>0</v>
+      </c>
+      <c r="G128" s="9">
+        <v>-32932</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" s="9">
+        <v>0</v>
+      </c>
+      <c r="J128" s="9">
+        <v>0</v>
+      </c>
+      <c r="K128" s="9">
         <v>-1060</v>
       </c>
-      <c r="G128" s="9">
+      <c r="L128" s="9">
         <v>-21</v>
       </c>
-      <c r="H128" s="9">
-        <v>0</v>
-      </c>
-      <c r="I128" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M128" s="9">
+        <v>0</v>
+      </c>
+      <c r="N128" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
+        <v>-59803</v>
+      </c>
+      <c r="F129" s="11">
+        <v>-28161</v>
+      </c>
+      <c r="G129" s="11">
+        <v>-107457</v>
+      </c>
+      <c r="H129" s="11">
+        <v>-81215</v>
+      </c>
+      <c r="I129" s="11">
+        <v>-167378</v>
+      </c>
+      <c r="J129" s="11">
         <v>-59707</v>
       </c>
-      <c r="F129" s="11">
+      <c r="K129" s="11">
         <v>-211774</v>
       </c>
-      <c r="G129" s="11">
+      <c r="L129" s="11">
         <v>-63526</v>
       </c>
-      <c r="H129" s="11">
+      <c r="M129" s="11">
         <v>-274301</v>
       </c>
-      <c r="I129" s="11">
+      <c r="N129" s="11">
         <v>-3012</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9">
+        <v>-599145</v>
+      </c>
+      <c r="F130" s="9">
+        <v>-1575558</v>
+      </c>
+      <c r="G130" s="9">
+        <v>-738343</v>
+      </c>
+      <c r="H130" s="9">
+        <v>-497680</v>
+      </c>
+      <c r="I130" s="9">
+        <v>-1808661</v>
+      </c>
+      <c r="J130" s="9">
         <v>-3105618</v>
       </c>
-      <c r="F130" s="9">
+      <c r="K130" s="9">
         <v>-1838925</v>
       </c>
-      <c r="G130" s="9">
+      <c r="L130" s="9">
         <v>-926724</v>
       </c>
-      <c r="H130" s="9">
+      <c r="M130" s="9">
         <v>-1240727</v>
       </c>
-      <c r="I130" s="9">
+      <c r="N130" s="9">
         <v>-3558804</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
+        <v>-6</v>
+      </c>
+      <c r="F131" s="11">
         <v>-4</v>
       </c>
-      <c r="F131" s="11">
-        <v>0</v>
-      </c>
       <c r="G131" s="11">
-        <v>0</v>
-      </c>
-      <c r="H131" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I131" s="11">
+        <v>-4</v>
+      </c>
+      <c r="J131" s="11">
+        <v>-4</v>
+      </c>
+      <c r="K131" s="11">
+        <v>0</v>
+      </c>
+      <c r="L131" s="11">
+        <v>0</v>
+      </c>
+      <c r="M131" s="11">
         <v>-3</v>
       </c>
-      <c r="I131" s="11">
+      <c r="N131" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D132" s="9"/>
-      <c r="E132" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>17</v>
+      <c r="E132" s="9">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9">
+        <v>0</v>
+      </c>
+      <c r="G132" s="9">
+        <v>0</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M132" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N132" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F133" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K133" s="11">
+        <v>0</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M133" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F134" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134" s="9">
+        <v>0</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
@@ -3522,156 +5307,261 @@
       <c r="G135" s="11">
         <v>0</v>
       </c>
-      <c r="H135" s="11">
-        <v>0</v>
+      <c r="H135" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I135" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="11">
+        <v>0</v>
+      </c>
+      <c r="K135" s="11">
+        <v>0</v>
+      </c>
+      <c r="L135" s="11">
+        <v>0</v>
+      </c>
+      <c r="M135" s="11">
+        <v>0</v>
+      </c>
+      <c r="N135" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F136" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K136" s="9">
+        <v>0</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M136" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N136" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>17</v>
+      <c r="E137" s="11">
+        <v>0</v>
+      </c>
+      <c r="F137" s="11">
+        <v>0</v>
+      </c>
+      <c r="G137" s="11">
+        <v>0</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F138" s="9">
+        <v>22</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K138" s="9">
         <v>-311730</v>
       </c>
-      <c r="G138" s="9">
+      <c r="L138" s="9">
         <v>-4409</v>
       </c>
-      <c r="H138" s="9">
+      <c r="M138" s="9">
         <v>-144398</v>
       </c>
-      <c r="I138" s="9">
+      <c r="N138" s="9">
         <v>22879</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F139" s="11">
+        <v>22</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" s="11">
         <v>-119437</v>
       </c>
-      <c r="G139" s="11">
-        <v>0</v>
-      </c>
-      <c r="H139" s="11">
+      <c r="L139" s="11">
+        <v>0</v>
+      </c>
+      <c r="M139" s="11">
         <v>-46119</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>-16771</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="H140" s="9">
+        <v>0</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15">
+        <v>-807800</v>
+      </c>
+      <c r="F141" s="15">
+        <v>-1859386</v>
+      </c>
+      <c r="G141" s="15">
+        <v>-1011880</v>
+      </c>
+      <c r="H141" s="15">
+        <v>-686108</v>
+      </c>
+      <c r="I141" s="15">
+        <v>-2335352</v>
+      </c>
+      <c r="J141" s="15">
         <v>-3527613</v>
       </c>
-      <c r="F141" s="15">
+      <c r="K141" s="15">
         <v>-2652835</v>
       </c>
-      <c r="G141" s="15">
+      <c r="L141" s="15">
         <v>-1151444</v>
       </c>
-      <c r="H141" s="15">
+      <c r="M141" s="15">
         <v>-2074610</v>
       </c>
-      <c r="I141" s="15">
+      <c r="N141" s="15">
         <v>-4412877</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3680,8 +5570,13 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3690,8 +5585,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3700,10 +5600,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3722,8 +5627,23 @@
       <c r="I145" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3732,229 +5652,369 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>31029</v>
+      </c>
+      <c r="F147" s="9">
+        <v>185322</v>
+      </c>
+      <c r="G147" s="9">
+        <v>-73824</v>
+      </c>
+      <c r="H147" s="9">
+        <v>94577</v>
+      </c>
+      <c r="I147" s="9">
+        <v>-41584</v>
+      </c>
+      <c r="J147" s="9">
         <v>245977</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>208818</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>146478</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>27782</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>677480</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>30229</v>
+      </c>
+      <c r="F148" s="11">
+        <v>71932</v>
+      </c>
+      <c r="G148" s="11">
+        <v>95399</v>
+      </c>
+      <c r="H148" s="11">
+        <v>53070</v>
+      </c>
+      <c r="I148" s="11">
+        <v>95546</v>
+      </c>
+      <c r="J148" s="11">
         <v>80297</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>81814</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>66106</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>98758</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>116295</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
         <v>0</v>
       </c>
       <c r="F149" s="9">
+        <v>0</v>
+      </c>
+      <c r="G149" s="9">
+        <v>1048</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I149" s="9">
+        <v>0</v>
+      </c>
+      <c r="J149" s="9">
+        <v>0</v>
+      </c>
+      <c r="K149" s="9">
         <v>2345</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>49</v>
       </c>
-      <c r="H149" s="9">
-        <v>0</v>
-      </c>
-      <c r="I149" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M149" s="9">
+        <v>0</v>
+      </c>
+      <c r="N149" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
+        <v>-39077</v>
+      </c>
+      <c r="F150" s="11">
+        <v>8401</v>
+      </c>
+      <c r="G150" s="11">
+        <v>-59377</v>
+      </c>
+      <c r="H150" s="11">
+        <v>-14919</v>
+      </c>
+      <c r="I150" s="11">
+        <v>-46193</v>
+      </c>
+      <c r="J150" s="11">
         <v>-10079</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>-129266</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>-29703</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>-63689</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>40401</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
+        <v>101443</v>
+      </c>
+      <c r="F151" s="9">
+        <v>146126</v>
+      </c>
+      <c r="G151" s="9">
+        <v>190990</v>
+      </c>
+      <c r="H151" s="9">
+        <v>4677</v>
+      </c>
+      <c r="I151" s="9">
+        <v>354214</v>
+      </c>
+      <c r="J151" s="9">
         <v>643151</v>
       </c>
-      <c r="F151" s="9">
+      <c r="K151" s="9">
         <v>170129</v>
       </c>
-      <c r="G151" s="9">
+      <c r="L151" s="9">
         <v>-1186</v>
       </c>
-      <c r="H151" s="9">
+      <c r="M151" s="9">
         <v>266133</v>
       </c>
-      <c r="I151" s="9">
+      <c r="N151" s="9">
         <v>268724</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11">
+        <v>17</v>
+      </c>
+      <c r="F152" s="11">
+        <v>15</v>
+      </c>
+      <c r="G152" s="11">
+        <v>7</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" s="11">
+        <v>23</v>
+      </c>
+      <c r="J152" s="11">
         <v>28</v>
       </c>
-      <c r="F152" s="11">
+      <c r="K152" s="11">
         <v>6</v>
       </c>
-      <c r="G152" s="11">
-        <v>0</v>
-      </c>
-      <c r="H152" s="11">
+      <c r="L152" s="11">
+        <v>0</v>
+      </c>
+      <c r="M152" s="11">
         <v>33</v>
       </c>
-      <c r="I152" s="11">
+      <c r="N152" s="11">
         <v>-33</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D153" s="9"/>
-      <c r="E153" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>17</v>
+      <c r="E153" s="9">
+        <v>0</v>
+      </c>
+      <c r="F153" s="9">
+        <v>0</v>
+      </c>
+      <c r="G153" s="9">
+        <v>0</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N153" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F154" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K154" s="11">
+        <v>0</v>
+      </c>
+      <c r="L154" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M154" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K155" s="9">
+        <v>0</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N155" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
@@ -3966,152 +6026,257 @@
       <c r="G156" s="11">
         <v>0</v>
       </c>
-      <c r="H156" s="11">
-        <v>0</v>
+      <c r="H156" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I156" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="11">
+        <v>0</v>
+      </c>
+      <c r="K156" s="11">
+        <v>0</v>
+      </c>
+      <c r="L156" s="11">
+        <v>0</v>
+      </c>
+      <c r="M156" s="11">
+        <v>0</v>
+      </c>
+      <c r="N156" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F157" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" s="9">
+        <v>0</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>17</v>
+      <c r="E158" s="11">
+        <v>0</v>
+      </c>
+      <c r="F158" s="11">
+        <v>0</v>
+      </c>
+      <c r="G158" s="11">
+        <v>0</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F159" s="9">
+        <v>22</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" s="9">
         <v>-239271</v>
       </c>
-      <c r="G159" s="9">
+      <c r="L159" s="9">
         <v>-3447</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>-122606</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>22879</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F160" s="11">
+        <v>22</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" s="11">
         <v>-98563</v>
       </c>
-      <c r="G160" s="11">
-        <v>0</v>
-      </c>
-      <c r="H160" s="11">
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="11">
         <v>-39862</v>
       </c>
-      <c r="I160" s="11">
+      <c r="N160" s="11">
         <v>-14580</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="H161" s="9">
+        <v>0</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N161" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15">
+        <v>123641</v>
+      </c>
+      <c r="F162" s="15">
+        <v>411796</v>
+      </c>
+      <c r="G162" s="15">
+        <v>154243</v>
+      </c>
+      <c r="H162" s="15">
+        <v>137405</v>
+      </c>
+      <c r="I162" s="15">
+        <v>362006</v>
+      </c>
+      <c r="J162" s="15">
         <v>959374</v>
       </c>
-      <c r="F162" s="15">
+      <c r="K162" s="15">
         <v>-3988</v>
       </c>
-      <c r="G162" s="15">
+      <c r="L162" s="15">
         <v>178297</v>
       </c>
-      <c r="H162" s="15">
+      <c r="M162" s="15">
         <v>166549</v>
       </c>
-      <c r="I162" s="15">
+      <c r="N162" s="15">
         <v>1111166</v>
       </c>
     </row>

--- a/database/industries/ghand/ghesafha/product/quarterly.xlsx
+++ b/database/industries/ghand/ghesafha/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83772E-901F-4CC7-8531-A51B2FEA001D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28932890-2ED4-49B3-B70D-D3973735C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>تفاله خشک</t>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +716,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -765,7 +765,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -817,7 +817,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -826,37 +826,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1678</v>
+        <v>17016</v>
       </c>
       <c r="F10" s="9">
-        <v>17016</v>
+        <v>3338</v>
       </c>
       <c r="G10" s="9">
-        <v>3338</v>
+        <v>8833</v>
       </c>
       <c r="H10" s="9">
-        <v>8833</v>
+        <v>2533</v>
       </c>
       <c r="I10" s="9">
-        <v>2533</v>
+        <v>18444</v>
       </c>
       <c r="J10" s="9">
-        <v>18444</v>
+        <v>-5323</v>
       </c>
       <c r="K10" s="9">
-        <v>-5323</v>
+        <v>6327</v>
       </c>
       <c r="L10" s="9">
-        <v>6327</v>
+        <v>3203</v>
       </c>
       <c r="M10" s="9">
-        <v>3203</v>
+        <v>18405</v>
       </c>
       <c r="N10" s="9">
-        <v>18405</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6507</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -865,37 +865,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>744</v>
+        <v>5933</v>
       </c>
       <c r="F11" s="11">
-        <v>5933</v>
+        <v>2290</v>
       </c>
       <c r="G11" s="11">
-        <v>2290</v>
+        <v>3793</v>
       </c>
       <c r="H11" s="11">
-        <v>3793</v>
+        <v>4306</v>
       </c>
       <c r="I11" s="11">
-        <v>4306</v>
+        <v>5795</v>
       </c>
       <c r="J11" s="11">
-        <v>5795</v>
+        <v>3493</v>
       </c>
       <c r="K11" s="11">
-        <v>3493</v>
+        <v>2335</v>
       </c>
       <c r="L11" s="11">
-        <v>2335</v>
+        <v>4813</v>
       </c>
       <c r="M11" s="11">
-        <v>4813</v>
+        <v>5930</v>
       </c>
       <c r="N11" s="11">
-        <v>5930</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -943,37 +943,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>9086</v>
+        <v>16847</v>
       </c>
       <c r="F13" s="11">
-        <v>16847</v>
+        <v>22156</v>
       </c>
       <c r="G13" s="11">
-        <v>22156</v>
+        <v>18545</v>
       </c>
       <c r="H13" s="11">
-        <v>18545</v>
+        <v>32142</v>
       </c>
       <c r="I13" s="11">
-        <v>32142</v>
+        <v>12407</v>
       </c>
       <c r="J13" s="11">
-        <v>12407</v>
+        <v>20620</v>
       </c>
       <c r="K13" s="11">
-        <v>20620</v>
+        <v>5475</v>
       </c>
       <c r="L13" s="11">
-        <v>5475</v>
+        <v>29728</v>
       </c>
       <c r="M13" s="11">
-        <v>29728</v>
+        <v>5243</v>
       </c>
       <c r="N13" s="11">
-        <v>5243</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -982,37 +982,37 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>3576</v>
+        <v>36064</v>
       </c>
       <c r="F14" s="9">
-        <v>36064</v>
+        <v>7091</v>
       </c>
       <c r="G14" s="9">
-        <v>7091</v>
+        <v>16174</v>
       </c>
       <c r="H14" s="9">
-        <v>16174</v>
+        <v>5079</v>
       </c>
       <c r="I14" s="9">
-        <v>5079</v>
+        <v>37307</v>
       </c>
       <c r="J14" s="9">
-        <v>37307</v>
+        <v>6702</v>
       </c>
       <c r="K14" s="9">
-        <v>6702</v>
+        <v>11356</v>
       </c>
       <c r="L14" s="9">
-        <v>11356</v>
+        <v>4447</v>
       </c>
       <c r="M14" s="9">
-        <v>4447</v>
+        <v>36903</v>
       </c>
       <c r="N14" s="9">
-        <v>36903</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1113,11 +1113,11 @@
       <c r="I17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>22</v>
@@ -1129,7 +1129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1152,11 +1152,11 @@
       <c r="I18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>22</v>
@@ -1168,7 +1168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1183,8 +1183,8 @@
       <c r="G19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>22</v>
+      <c r="H19" s="11">
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1345,11 +1345,11 @@
       <c r="I23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>22</v>
@@ -1361,7 +1361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1423,23 +1423,23 @@
       <c r="I25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>22</v>
+      <c r="J25" s="11">
+        <v>10723</v>
       </c>
       <c r="K25" s="11">
-        <v>10723</v>
+        <v>121</v>
       </c>
       <c r="L25" s="11">
-        <v>121</v>
+        <v>-121</v>
       </c>
       <c r="M25" s="11">
-        <v>-121</v>
+        <v>0</v>
       </c>
       <c r="N25" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1501,11 +1501,11 @@
       <c r="I27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>22</v>
+      <c r="J27" s="11">
+        <v>1075</v>
       </c>
       <c r="K27" s="11">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="L27" s="11">
         <v>0</v>
@@ -1517,44 +1517,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>15084</v>
+        <v>75860</v>
       </c>
       <c r="F28" s="13">
-        <v>75860</v>
+        <v>34875</v>
       </c>
       <c r="G28" s="13">
-        <v>34875</v>
+        <v>47345</v>
       </c>
       <c r="H28" s="13">
-        <v>47345</v>
+        <v>44060</v>
       </c>
       <c r="I28" s="13">
-        <v>44060</v>
+        <v>73953</v>
       </c>
       <c r="J28" s="13">
-        <v>73953</v>
+        <v>37290</v>
       </c>
       <c r="K28" s="13">
-        <v>37290</v>
+        <v>25614</v>
       </c>
       <c r="L28" s="13">
-        <v>25614</v>
+        <v>42070</v>
       </c>
       <c r="M28" s="13">
-        <v>42070</v>
+        <v>66481</v>
       </c>
       <c r="N28" s="13">
-        <v>66481</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>60681</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1569,7 +1569,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1584,7 +1584,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1599,7 +1599,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1651,7 +1651,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>15</v>
       </c>
@@ -1660,37 +1660,37 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>7417</v>
+        <v>13963</v>
       </c>
       <c r="F34" s="9">
-        <v>13963</v>
+        <v>6881</v>
       </c>
       <c r="G34" s="9">
-        <v>6881</v>
+        <v>4668</v>
       </c>
       <c r="H34" s="9">
-        <v>4668</v>
+        <v>7590</v>
       </c>
       <c r="I34" s="9">
-        <v>7590</v>
-      </c>
-      <c r="J34" s="9">
         <v>13186</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>22</v>
+      <c r="J34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="9">
+        <v>3257</v>
       </c>
       <c r="L34" s="9">
-        <v>3257</v>
+        <v>2583</v>
       </c>
       <c r="M34" s="9">
-        <v>2583</v>
+        <v>15473</v>
       </c>
       <c r="N34" s="9">
-        <v>15473</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>17</v>
       </c>
@@ -1699,37 +1699,37 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>2127</v>
+        <v>4601</v>
       </c>
       <c r="F35" s="11">
-        <v>4601</v>
+        <v>3615</v>
       </c>
       <c r="G35" s="11">
-        <v>3615</v>
+        <v>1686</v>
       </c>
       <c r="H35" s="11">
-        <v>1686</v>
+        <v>5926</v>
       </c>
       <c r="I35" s="11">
-        <v>5926</v>
-      </c>
-      <c r="J35" s="11">
         <v>5920</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>22</v>
+      <c r="J35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1928</v>
       </c>
       <c r="L35" s="11">
-        <v>1928</v>
+        <v>5087</v>
       </c>
       <c r="M35" s="11">
-        <v>5087</v>
+        <v>5969</v>
       </c>
       <c r="N35" s="11">
-        <v>5969</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
@@ -1741,25 +1741,25 @@
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
         <v>840</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>22</v>
+      <c r="G36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
       </c>
       <c r="I36" s="9">
         <v>0</v>
       </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>22</v>
+      <c r="J36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1</v>
       </c>
       <c r="L36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="9">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
@@ -1780,34 +1780,34 @@
         <v>0</v>
       </c>
       <c r="F37" s="11">
-        <v>0</v>
+        <v>-51767</v>
       </c>
       <c r="G37" s="11">
-        <v>-51767</v>
+        <v>0</v>
       </c>
       <c r="H37" s="11">
-        <v>0</v>
+        <v>32122</v>
       </c>
       <c r="I37" s="11">
-        <v>32122</v>
-      </c>
-      <c r="J37" s="11">
         <v>12407</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>22</v>
+      <c r="J37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="11">
+        <v>5475</v>
       </c>
       <c r="L37" s="11">
-        <v>5475</v>
+        <v>29728</v>
       </c>
       <c r="M37" s="11">
-        <v>29728</v>
+        <v>5243</v>
       </c>
       <c r="N37" s="11">
-        <v>5243</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38318</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>20</v>
       </c>
@@ -1816,37 +1816,37 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>10931</v>
+        <v>26411</v>
       </c>
       <c r="F38" s="9">
-        <v>26411</v>
+        <v>14637</v>
       </c>
       <c r="G38" s="9">
-        <v>14637</v>
+        <v>5853</v>
       </c>
       <c r="H38" s="9">
-        <v>5853</v>
+        <v>17900</v>
       </c>
       <c r="I38" s="9">
-        <v>17900</v>
-      </c>
-      <c r="J38" s="9">
         <v>30534</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>22</v>
+      <c r="J38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="9">
+        <v>5154</v>
       </c>
       <c r="L38" s="9">
-        <v>5154</v>
+        <v>8193</v>
       </c>
       <c r="M38" s="9">
-        <v>8193</v>
+        <v>21617</v>
       </c>
       <c r="N38" s="9">
-        <v>21617</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25689</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>23</v>
       </c>
@@ -1933,25 +1933,25 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="11">
         <v>1</v>
       </c>
-      <c r="F41" s="11">
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="I41" s="11">
-        <v>1</v>
-      </c>
-      <c r="J41" s="11">
-        <v>0</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
       </c>
       <c r="L41" s="11">
         <v>0</v>
@@ -1960,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F42" s="9">
         <v>0</v>
       </c>
-      <c r="G42" s="9">
-        <v>0</v>
+      <c r="G42" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>22</v>
@@ -2002,7 +2002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>24</v>
       </c>
@@ -2025,11 +2025,11 @@
       <c r="I43" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0</v>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>22</v>
@@ -2041,7 +2041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>40</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>41</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>25</v>
       </c>
@@ -2142,11 +2142,11 @@
       <c r="I46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>22</v>
@@ -2158,7 +2158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>26</v>
       </c>
@@ -2170,20 +2170,20 @@
       <c r="F47" s="11">
         <v>0</v>
       </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>22</v>
+      <c r="G47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
       </c>
       <c r="I47" s="11">
         <v>0</v>
       </c>
-      <c r="J47" s="11">
-        <v>0</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>22</v>
+      <c r="J47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
       </c>
       <c r="L47" s="11">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>44</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>45</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>27</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>28</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>29</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>30</v>
       </c>
@@ -2452,11 +2452,11 @@
       <c r="I54" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>22</v>
@@ -2468,7 +2468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>31</v>
       </c>
@@ -2482,8 +2482,8 @@
       <c r="F55" s="11">
         <v>0</v>
       </c>
-      <c r="G55" s="11">
-        <v>0</v>
+      <c r="G55" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>22</v>
@@ -2507,7 +2507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>32</v>
       </c>
@@ -2533,20 +2533,20 @@
       <c r="J56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>22</v>
+      <c r="K56" s="9">
+        <v>121</v>
       </c>
       <c r="L56" s="9">
-        <v>121</v>
+        <v>2725</v>
       </c>
       <c r="M56" s="9">
-        <v>2725</v>
+        <v>0</v>
       </c>
       <c r="N56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>34</v>
       </c>
@@ -2572,20 +2572,20 @@
       <c r="J57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K57" s="11" t="s">
-        <v>22</v>
+      <c r="K57" s="11">
+        <v>0</v>
       </c>
       <c r="L57" s="11">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="M57" s="11">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="N57" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>46</v>
       </c>
@@ -2599,11 +2599,11 @@
       <c r="F58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0</v>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>22</v>
@@ -2624,44 +2624,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>20476</v>
+        <v>44975</v>
       </c>
       <c r="F59" s="15">
-        <v>44975</v>
+        <v>-25794</v>
       </c>
       <c r="G59" s="15">
-        <v>-25794</v>
+        <v>12207</v>
       </c>
       <c r="H59" s="15">
-        <v>12207</v>
+        <v>63539</v>
       </c>
       <c r="I59" s="15">
-        <v>63539</v>
+        <v>62047</v>
       </c>
       <c r="J59" s="15">
-        <v>62047</v>
+        <v>0</v>
       </c>
       <c r="K59" s="15">
-        <v>0</v>
+        <v>15936</v>
       </c>
       <c r="L59" s="15">
-        <v>15936</v>
+        <v>48600</v>
       </c>
       <c r="M59" s="15">
-        <v>48600</v>
+        <v>48402</v>
       </c>
       <c r="N59" s="15">
-        <v>48402</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>80508</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2676,7 +2676,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2691,7 +2691,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2706,7 +2706,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>47</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2758,7 +2758,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>15</v>
       </c>
@@ -2767,37 +2767,37 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>154876</v>
+        <v>386286</v>
       </c>
       <c r="F65" s="9">
-        <v>386286</v>
+        <v>41548</v>
       </c>
       <c r="G65" s="9">
-        <v>41548</v>
+        <v>189271</v>
       </c>
       <c r="H65" s="9">
-        <v>189271</v>
+        <v>207112</v>
       </c>
       <c r="I65" s="9">
-        <v>207112</v>
-      </c>
-      <c r="J65" s="9">
         <v>514942</v>
       </c>
-      <c r="K65" s="9" t="s">
-        <v>22</v>
+      <c r="J65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="9">
+        <v>265156</v>
       </c>
       <c r="L65" s="9">
-        <v>265156</v>
+        <v>214456</v>
       </c>
       <c r="M65" s="9">
-        <v>214456</v>
+        <v>1315169</v>
       </c>
       <c r="N65" s="9">
-        <v>1315169</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>260236</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>17</v>
       </c>
@@ -2806,37 +2806,37 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>55228</v>
+        <v>126631</v>
       </c>
       <c r="F66" s="11">
-        <v>126631</v>
+        <v>113174</v>
       </c>
       <c r="G66" s="11">
-        <v>113174</v>
+        <v>65589</v>
       </c>
       <c r="H66" s="11">
-        <v>65589</v>
+        <v>208509</v>
       </c>
       <c r="I66" s="11">
-        <v>208509</v>
-      </c>
-      <c r="J66" s="11">
         <v>196582</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>22</v>
+      <c r="J66" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="11">
+        <v>104192</v>
       </c>
       <c r="L66" s="11">
-        <v>104192</v>
+        <v>281146</v>
       </c>
       <c r="M66" s="11">
-        <v>281146</v>
+        <v>335778</v>
       </c>
       <c r="N66" s="11">
-        <v>335778</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>345027</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>18</v>
       </c>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="F67" s="9">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
         <v>33980</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>22</v>
+      <c r="G67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
       </c>
       <c r="I67" s="9">
         <v>0</v>
       </c>
-      <c r="J67" s="9">
-        <v>0</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>22</v>
+      <c r="J67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="9">
+        <v>70</v>
       </c>
       <c r="L67" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M67" s="9">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>19</v>
       </c>
@@ -2884,37 +2884,37 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>20726</v>
+        <v>36562</v>
       </c>
       <c r="F68" s="11">
-        <v>36562</v>
+        <v>48080</v>
       </c>
       <c r="G68" s="11">
-        <v>48080</v>
+        <v>66296</v>
       </c>
       <c r="H68" s="11">
-        <v>66296</v>
+        <v>121185</v>
       </c>
       <c r="I68" s="11">
-        <v>121185</v>
-      </c>
-      <c r="J68" s="11">
         <v>49628</v>
       </c>
-      <c r="K68" s="11" t="s">
-        <v>22</v>
+      <c r="J68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="11">
+        <v>33823</v>
       </c>
       <c r="L68" s="11">
-        <v>33823</v>
+        <v>210612</v>
       </c>
       <c r="M68" s="11">
-        <v>210612</v>
+        <v>43413</v>
       </c>
       <c r="N68" s="11">
-        <v>43413</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>292405</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>20</v>
       </c>
@@ -2923,37 +2923,37 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>700588</v>
+        <v>1721684</v>
       </c>
       <c r="F69" s="9">
-        <v>1721684</v>
+        <v>929333</v>
       </c>
       <c r="G69" s="9">
-        <v>929333</v>
+        <v>502357</v>
       </c>
       <c r="H69" s="9">
-        <v>502357</v>
+        <v>2163046</v>
       </c>
       <c r="I69" s="9">
-        <v>2163046</v>
-      </c>
-      <c r="J69" s="9">
         <v>3755416</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>22</v>
+      <c r="J69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="9">
+        <v>925538</v>
       </c>
       <c r="L69" s="9">
-        <v>925538</v>
+        <v>1506860</v>
       </c>
       <c r="M69" s="9">
-        <v>1506860</v>
+        <v>3827528</v>
       </c>
       <c r="N69" s="9">
-        <v>3827528</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4624101</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>37</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>21</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>23</v>
       </c>
@@ -3040,37 +3040,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F72" s="11">
-        <v>19</v>
-      </c>
-      <c r="G72" s="11">
         <v>8</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>22</v>
+      <c r="G72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="11">
+        <v>27</v>
       </c>
       <c r="I72" s="11">
-        <v>27</v>
-      </c>
-      <c r="J72" s="11">
         <v>32</v>
       </c>
-      <c r="K72" s="11" t="s">
-        <v>22</v>
+      <c r="J72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
       </c>
       <c r="L72" s="11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M72" s="11">
-        <v>36</v>
+        <v>-36</v>
       </c>
       <c r="N72" s="11">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49217</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>38</v>
       </c>
@@ -3084,8 +3084,8 @@
       <c r="F73" s="9">
         <v>0</v>
       </c>
-      <c r="G73" s="9">
-        <v>0</v>
+      <c r="G73" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>22</v>
@@ -3109,7 +3109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>24</v>
       </c>
@@ -3132,11 +3132,11 @@
       <c r="I74" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J74" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K74" s="11">
-        <v>0</v>
+      <c r="J74" s="11">
+        <v>0</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L74" s="11" t="s">
         <v>22</v>
@@ -3148,7 +3148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>40</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>41</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>25</v>
       </c>
@@ -3249,11 +3249,11 @@
       <c r="I77" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="9">
-        <v>0</v>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L77" s="9" t="s">
         <v>22</v>
@@ -3265,7 +3265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>26</v>
       </c>
@@ -3279,20 +3279,20 @@
       <c r="F78" s="11">
         <v>0</v>
       </c>
-      <c r="G78" s="11">
-        <v>0</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>22</v>
+      <c r="G78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
       </c>
       <c r="I78" s="11">
         <v>0</v>
       </c>
-      <c r="J78" s="11">
-        <v>0</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>22</v>
+      <c r="J78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0</v>
       </c>
       <c r="L78" s="11">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>42</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>44</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>28</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>30</v>
       </c>
@@ -3561,11 +3561,11 @@
       <c r="I85" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="9">
-        <v>0</v>
+      <c r="J85" s="9">
+        <v>0</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L85" s="9" t="s">
         <v>22</v>
@@ -3577,7 +3577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
@@ -3591,8 +3591,8 @@
       <c r="F86" s="11">
         <v>0</v>
       </c>
-      <c r="G86" s="11">
-        <v>0</v>
+      <c r="G86" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>22</v>
@@ -3616,7 +3616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>32</v>
       </c>
@@ -3642,20 +3642,20 @@
       <c r="J87" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K87" s="9" t="s">
-        <v>22</v>
+      <c r="K87" s="9">
+        <v>962</v>
       </c>
       <c r="L87" s="9">
-        <v>962</v>
+        <v>21792</v>
       </c>
       <c r="M87" s="9">
-        <v>21792</v>
+        <v>0</v>
       </c>
       <c r="N87" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57694</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>34</v>
       </c>
@@ -3681,20 +3681,20 @@
       <c r="J88" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K88" s="11" t="s">
-        <v>22</v>
+      <c r="K88" s="11">
+        <v>0</v>
       </c>
       <c r="L88" s="11">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="M88" s="11">
-        <v>6257</v>
+        <v>2191</v>
       </c>
       <c r="N88" s="11">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>46</v>
       </c>
@@ -3708,11 +3708,11 @@
       <c r="F89" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
+      <c r="G89" s="9">
+        <v>0</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>22</v>
@@ -3733,44 +3733,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>931441</v>
+        <v>2271182</v>
       </c>
       <c r="F90" s="15">
-        <v>2271182</v>
+        <v>1166123</v>
       </c>
       <c r="G90" s="15">
-        <v>1166123</v>
+        <v>823513</v>
       </c>
       <c r="H90" s="15">
-        <v>823513</v>
+        <v>2699879</v>
       </c>
       <c r="I90" s="15">
-        <v>2699879</v>
+        <v>4516600</v>
       </c>
       <c r="J90" s="15">
-        <v>4516600</v>
+        <v>0</v>
       </c>
       <c r="K90" s="15">
-        <v>0</v>
+        <v>1329741</v>
       </c>
       <c r="L90" s="15">
-        <v>1329741</v>
+        <v>2241159</v>
       </c>
       <c r="M90" s="15">
-        <v>2241159</v>
+        <v>5524043</v>
       </c>
       <c r="N90" s="15">
-        <v>5524043</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5626489</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3785,7 +3785,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3800,7 +3800,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3815,7 +3815,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>49</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3867,7 +3867,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>15</v>
       </c>
@@ -3876,37 +3876,37 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>20881219</v>
+        <v>27664972</v>
       </c>
       <c r="F96" s="9">
-        <v>27664972</v>
+        <v>6038076</v>
       </c>
       <c r="G96" s="9">
-        <v>6038076</v>
+        <v>40546487</v>
       </c>
       <c r="H96" s="9">
-        <v>40546487</v>
+        <v>29615563</v>
       </c>
       <c r="I96" s="9">
-        <v>29615563</v>
+        <v>51602266</v>
       </c>
       <c r="J96" s="9">
-        <v>51602266</v>
+        <v>106595847</v>
       </c>
       <c r="K96" s="9">
-        <v>106595847</v>
+        <v>81411115</v>
       </c>
       <c r="L96" s="9">
-        <v>81411115</v>
+        <v>83025939</v>
       </c>
       <c r="M96" s="9">
-        <v>83025939</v>
+        <v>84997673</v>
       </c>
       <c r="N96" s="9">
-        <v>84997673</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86629827</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>17</v>
       </c>
@@ -3915,37 +3915,37 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>25965209</v>
+        <v>27522495</v>
       </c>
       <c r="F97" s="11">
-        <v>27522495</v>
+        <v>31306777</v>
       </c>
       <c r="G97" s="11">
-        <v>31306777</v>
+        <v>38902135</v>
       </c>
       <c r="H97" s="11">
-        <v>38902135</v>
+        <v>35185454</v>
       </c>
       <c r="I97" s="11">
-        <v>35185454</v>
+        <v>33206419</v>
       </c>
       <c r="J97" s="11">
-        <v>33206419</v>
+        <v>35826087</v>
       </c>
       <c r="K97" s="11">
-        <v>35826087</v>
+        <v>54041494</v>
       </c>
       <c r="L97" s="11">
-        <v>54041494</v>
+        <v>55267545</v>
       </c>
       <c r="M97" s="11">
-        <v>55267545</v>
+        <v>56253644</v>
       </c>
       <c r="N97" s="11">
-        <v>56253644</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56038168</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>18</v>
       </c>
@@ -3956,27 +3956,27 @@
       <c r="E98" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F98" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="9">
+      <c r="F98" s="9">
         <v>40452381</v>
       </c>
+      <c r="G98" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="H98" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J98" s="9" t="s">
-        <v>22</v>
+      <c r="J98" s="9">
+        <v>126111111</v>
       </c>
       <c r="K98" s="9">
-        <v>126111111</v>
-      </c>
-      <c r="L98" s="9">
         <v>70000000</v>
       </c>
+      <c r="L98" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="M98" s="9" t="s">
         <v>22</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -4001,29 +4001,29 @@
       <c r="G99" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>22</v>
+      <c r="H99" s="11">
+        <v>2390850</v>
       </c>
       <c r="I99" s="11">
-        <v>2390850</v>
+        <v>4000000</v>
       </c>
       <c r="J99" s="11">
-        <v>4000000</v>
+        <v>4001358</v>
       </c>
       <c r="K99" s="11">
-        <v>4001358</v>
+        <v>6177717</v>
       </c>
       <c r="L99" s="11">
-        <v>6177717</v>
+        <v>7084634</v>
       </c>
       <c r="M99" s="11">
-        <v>7084634</v>
+        <v>8280183</v>
       </c>
       <c r="N99" s="11">
-        <v>8280183</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7631009</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>20</v>
       </c>
@@ -4032,37 +4032,37 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>64091849</v>
+        <v>65188141</v>
       </c>
       <c r="F100" s="9">
-        <v>65188141</v>
+        <v>63492041</v>
       </c>
       <c r="G100" s="9">
-        <v>63492041</v>
+        <v>85828977</v>
       </c>
       <c r="H100" s="9">
-        <v>85828977</v>
+        <v>120986463</v>
       </c>
       <c r="I100" s="9">
-        <v>120986463</v>
+        <v>124205454</v>
       </c>
       <c r="J100" s="9">
-        <v>124205454</v>
+        <v>135994991</v>
       </c>
       <c r="K100" s="9">
-        <v>135994991</v>
+        <v>179576640</v>
       </c>
       <c r="L100" s="9">
-        <v>179576640</v>
+        <v>183920420</v>
       </c>
       <c r="M100" s="9">
-        <v>183920420</v>
+        <v>177061017</v>
       </c>
       <c r="N100" s="9">
-        <v>177061017</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>180003153</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>37</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>21</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>23</v>
       </c>
@@ -4148,8 +4148,8 @@
         <v>50</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11">
-        <v>23000000</v>
+      <c r="E103" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>22</v>
@@ -4157,29 +4157,29 @@
       <c r="G103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I103" s="11">
+      <c r="H103" s="11">
         <v>27000000</v>
       </c>
-      <c r="J103" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K103" s="11">
+      <c r="I103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="11">
         <v>-6000000</v>
       </c>
+      <c r="K103" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L103" s="11" t="s">
         <v>22</v>
       </c>
       <c r="M103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N103" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="11">
+        <v>213986957</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>38</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>24</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>40</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>41</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>25</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>26</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>42</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>44</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>45</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>27</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>28</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>29</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>30</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>31</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>32</v>
       </c>
@@ -4748,23 +4748,23 @@
       <c r="I118" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J118" s="9" t="s">
-        <v>22</v>
+      <c r="J118" s="9">
+        <v>6757344</v>
       </c>
       <c r="K118" s="9">
-        <v>6757344</v>
+        <v>7950413</v>
       </c>
       <c r="L118" s="9">
-        <v>7950413</v>
-      </c>
-      <c r="M118" s="9">
         <v>7997064</v>
       </c>
-      <c r="N118" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N118" s="9">
+        <v>8000832</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>34</v>
       </c>
@@ -4787,23 +4787,23 @@
       <c r="I119" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J119" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K119" s="11">
+      <c r="J119" s="11">
         <v>19417674</v>
       </c>
-      <c r="L119" s="11" t="s">
-        <v>22</v>
+      <c r="K119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="11">
+        <v>22031690</v>
       </c>
       <c r="M119" s="11">
-        <v>22031690</v>
+        <v>21910000</v>
       </c>
       <c r="N119" s="11">
-        <v>21910000</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21693069</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>46</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4857,7 +4857,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4872,7 +4872,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4887,7 +4887,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>54</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4939,7 +4939,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>15</v>
       </c>
@@ -4948,37 +4948,37 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
-        <v>-123847</v>
+        <v>-200964</v>
       </c>
       <c r="F126" s="9">
-        <v>-200964</v>
+        <v>-115372</v>
       </c>
       <c r="G126" s="9">
-        <v>-115372</v>
+        <v>-94694</v>
       </c>
       <c r="H126" s="9">
-        <v>-94694</v>
+        <v>-246346</v>
       </c>
       <c r="I126" s="9">
-        <v>-246346</v>
+        <v>-245999</v>
       </c>
       <c r="J126" s="9">
-        <v>-245999</v>
+        <v>-124827</v>
       </c>
       <c r="K126" s="9">
-        <v>-124827</v>
+        <v>-118678</v>
       </c>
       <c r="L126" s="9">
-        <v>-118678</v>
+        <v>-186674</v>
       </c>
       <c r="M126" s="9">
-        <v>-186674</v>
+        <v>-637689</v>
       </c>
       <c r="N126" s="9">
-        <v>-637689</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-163120</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>17</v>
       </c>
@@ -4987,37 +4987,37 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>-24999</v>
+        <v>-54699</v>
       </c>
       <c r="F127" s="11">
-        <v>-54699</v>
+        <v>-17775</v>
       </c>
       <c r="G127" s="11">
-        <v>-17775</v>
+        <v>-12519</v>
       </c>
       <c r="H127" s="11">
-        <v>-12519</v>
+        <v>-112963</v>
       </c>
       <c r="I127" s="11">
-        <v>-112963</v>
+        <v>-116285</v>
       </c>
       <c r="J127" s="11">
-        <v>-116285</v>
+        <v>-45082</v>
       </c>
       <c r="K127" s="11">
-        <v>-45082</v>
+        <v>-38086</v>
       </c>
       <c r="L127" s="11">
-        <v>-38086</v>
+        <v>-182388</v>
       </c>
       <c r="M127" s="11">
-        <v>-182388</v>
+        <v>-219483</v>
       </c>
       <c r="N127" s="11">
-        <v>-219483</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-118122</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>18</v>
       </c>
@@ -5029,25 +5029,25 @@
         <v>0</v>
       </c>
       <c r="F128" s="9">
-        <v>0</v>
-      </c>
-      <c r="G128" s="9">
         <v>-32932</v>
       </c>
-      <c r="H128" s="9" t="s">
-        <v>22</v>
+      <c r="G128" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="9">
+        <v>0</v>
       </c>
       <c r="I128" s="9">
         <v>0</v>
       </c>
       <c r="J128" s="9">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="K128" s="9">
-        <v>-1060</v>
+        <v>-21</v>
       </c>
       <c r="L128" s="9">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="M128" s="9">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>19</v>
       </c>
@@ -5065,37 +5065,37 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
-        <v>-59803</v>
+        <v>-28161</v>
       </c>
       <c r="F129" s="11">
-        <v>-28161</v>
+        <v>-107457</v>
       </c>
       <c r="G129" s="11">
-        <v>-107457</v>
+        <v>-81215</v>
       </c>
       <c r="H129" s="11">
-        <v>-81215</v>
+        <v>-167378</v>
       </c>
       <c r="I129" s="11">
-        <v>-167378</v>
+        <v>-59707</v>
       </c>
       <c r="J129" s="11">
-        <v>-59707</v>
+        <v>-211774</v>
       </c>
       <c r="K129" s="11">
-        <v>-211774</v>
+        <v>-63526</v>
       </c>
       <c r="L129" s="11">
-        <v>-63526</v>
+        <v>-274301</v>
       </c>
       <c r="M129" s="11">
-        <v>-274301</v>
+        <v>-3012</v>
       </c>
       <c r="N129" s="11">
-        <v>-3012</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-325009</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>20</v>
       </c>
@@ -5104,37 +5104,37 @@
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9">
-        <v>-599145</v>
+        <v>-1575558</v>
       </c>
       <c r="F130" s="9">
-        <v>-1575558</v>
+        <v>-738343</v>
       </c>
       <c r="G130" s="9">
-        <v>-738343</v>
+        <v>-497680</v>
       </c>
       <c r="H130" s="9">
-        <v>-497680</v>
+        <v>-1808661</v>
       </c>
       <c r="I130" s="9">
-        <v>-1808661</v>
+        <v>-3105618</v>
       </c>
       <c r="J130" s="9">
-        <v>-3105618</v>
+        <v>-1838925</v>
       </c>
       <c r="K130" s="9">
-        <v>-1838925</v>
+        <v>-926724</v>
       </c>
       <c r="L130" s="9">
-        <v>-926724</v>
+        <v>-1240727</v>
       </c>
       <c r="M130" s="9">
-        <v>-1240727</v>
+        <v>-3558804</v>
       </c>
       <c r="N130" s="9">
-        <v>-3558804</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4550462</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>23</v>
       </c>
@@ -5143,37 +5143,37 @@
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F131" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" s="11">
         <v>-4</v>
-      </c>
-      <c r="G131" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="I131" s="11">
         <v>-4</v>
       </c>
       <c r="J131" s="11">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="K131" s="11">
         <v>0</v>
       </c>
       <c r="L131" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M131" s="11">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="N131" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-46710</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>38</v>
       </c>
@@ -5187,8 +5187,8 @@
       <c r="F132" s="9">
         <v>0</v>
       </c>
-      <c r="G132" s="9">
-        <v>0</v>
+      <c r="G132" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>22</v>
@@ -5212,7 +5212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>24</v>
       </c>
@@ -5235,11 +5235,11 @@
       <c r="I133" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J133" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K133" s="11">
-        <v>0</v>
+      <c r="J133" s="11">
+        <v>0</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L133" s="11" t="s">
         <v>22</v>
@@ -5251,7 +5251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>25</v>
       </c>
@@ -5274,11 +5274,11 @@
       <c r="I134" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J134" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K134" s="9">
-        <v>0</v>
+      <c r="J134" s="9">
+        <v>0</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L134" s="9" t="s">
         <v>22</v>
@@ -5290,7 +5290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>26</v>
       </c>
@@ -5304,11 +5304,11 @@
       <c r="F135" s="11">
         <v>0</v>
       </c>
-      <c r="G135" s="11">
-        <v>0</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>22</v>
+      <c r="G135" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="11">
+        <v>0</v>
       </c>
       <c r="I135" s="11">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>30</v>
       </c>
@@ -5352,11 +5352,11 @@
       <c r="I136" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J136" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K136" s="9">
-        <v>0</v>
+      <c r="J136" s="9">
+        <v>0</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L136" s="9" t="s">
         <v>22</v>
@@ -5368,7 +5368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>31</v>
       </c>
@@ -5382,8 +5382,8 @@
       <c r="F137" s="11">
         <v>0</v>
       </c>
-      <c r="G137" s="11">
-        <v>0</v>
+      <c r="G137" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>22</v>
@@ -5407,7 +5407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>32</v>
       </c>
@@ -5430,23 +5430,23 @@
       <c r="I138" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J138" s="9" t="s">
-        <v>22</v>
+      <c r="J138" s="9">
+        <v>-311730</v>
       </c>
       <c r="K138" s="9">
-        <v>-311730</v>
+        <v>-4409</v>
       </c>
       <c r="L138" s="9">
-        <v>-4409</v>
+        <v>-144398</v>
       </c>
       <c r="M138" s="9">
-        <v>-144398</v>
+        <v>22879</v>
       </c>
       <c r="N138" s="9">
-        <v>22879</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-331557</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>34</v>
       </c>
@@ -5469,23 +5469,23 @@
       <c r="I139" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J139" s="11" t="s">
-        <v>22</v>
+      <c r="J139" s="11">
+        <v>-119437</v>
       </c>
       <c r="K139" s="11">
-        <v>-119437</v>
+        <v>0</v>
       </c>
       <c r="L139" s="11">
-        <v>0</v>
+        <v>-46119</v>
       </c>
       <c r="M139" s="11">
-        <v>-46119</v>
+        <v>-16771</v>
       </c>
       <c r="N139" s="11">
-        <v>-16771</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>46</v>
       </c>
@@ -5499,11 +5499,11 @@
       <c r="F140" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G140" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" s="9">
-        <v>0</v>
+      <c r="G140" s="9">
+        <v>0</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="I140" s="9" t="s">
         <v>22</v>
@@ -5524,44 +5524,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15">
-        <v>-807800</v>
+        <v>-1859386</v>
       </c>
       <c r="F141" s="15">
-        <v>-1859386</v>
+        <v>-1011880</v>
       </c>
       <c r="G141" s="15">
-        <v>-1011880</v>
+        <v>-686108</v>
       </c>
       <c r="H141" s="15">
-        <v>-686108</v>
+        <v>-2335352</v>
       </c>
       <c r="I141" s="15">
-        <v>-2335352</v>
+        <v>-3527613</v>
       </c>
       <c r="J141" s="15">
-        <v>-3527613</v>
+        <v>-2652835</v>
       </c>
       <c r="K141" s="15">
-        <v>-2652835</v>
+        <v>-1151444</v>
       </c>
       <c r="L141" s="15">
-        <v>-1151444</v>
+        <v>-2074610</v>
       </c>
       <c r="M141" s="15">
-        <v>-2074610</v>
+        <v>-4412877</v>
       </c>
       <c r="N141" s="15">
-        <v>-4412877</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5520040</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5576,7 +5576,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5591,7 +5591,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5606,7 +5606,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>55</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5658,7 +5658,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>15</v>
       </c>
@@ -5667,37 +5667,37 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>31029</v>
+        <v>185322</v>
       </c>
       <c r="F147" s="9">
-        <v>185322</v>
+        <v>-73824</v>
       </c>
       <c r="G147" s="9">
-        <v>-73824</v>
+        <v>94577</v>
       </c>
       <c r="H147" s="9">
-        <v>94577</v>
+        <v>-41584</v>
       </c>
       <c r="I147" s="9">
-        <v>-41584</v>
+        <v>245977</v>
       </c>
       <c r="J147" s="9">
-        <v>245977</v>
+        <v>208818</v>
       </c>
       <c r="K147" s="9">
-        <v>208818</v>
+        <v>146478</v>
       </c>
       <c r="L147" s="9">
-        <v>146478</v>
+        <v>27782</v>
       </c>
       <c r="M147" s="9">
-        <v>27782</v>
+        <v>677480</v>
       </c>
       <c r="N147" s="9">
-        <v>677480</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>97116</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>17</v>
       </c>
@@ -5706,37 +5706,37 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>30229</v>
+        <v>71932</v>
       </c>
       <c r="F148" s="11">
-        <v>71932</v>
+        <v>95399</v>
       </c>
       <c r="G148" s="11">
-        <v>95399</v>
+        <v>53070</v>
       </c>
       <c r="H148" s="11">
-        <v>53070</v>
+        <v>95546</v>
       </c>
       <c r="I148" s="11">
-        <v>95546</v>
+        <v>80297</v>
       </c>
       <c r="J148" s="11">
-        <v>80297</v>
+        <v>81814</v>
       </c>
       <c r="K148" s="11">
-        <v>81814</v>
+        <v>66106</v>
       </c>
       <c r="L148" s="11">
-        <v>66106</v>
+        <v>98758</v>
       </c>
       <c r="M148" s="11">
-        <v>98758</v>
+        <v>116295</v>
       </c>
       <c r="N148" s="11">
-        <v>116295</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>226905</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>18</v>
       </c>
@@ -5748,25 +5748,25 @@
         <v>0</v>
       </c>
       <c r="F149" s="9">
-        <v>0</v>
-      </c>
-      <c r="G149" s="9">
         <v>1048</v>
       </c>
-      <c r="H149" s="9" t="s">
-        <v>22</v>
+      <c r="G149" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" s="9">
+        <v>0</v>
       </c>
       <c r="I149" s="9">
         <v>0</v>
       </c>
       <c r="J149" s="9">
-        <v>0</v>
+        <v>2345</v>
       </c>
       <c r="K149" s="9">
-        <v>2345</v>
+        <v>49</v>
       </c>
       <c r="L149" s="9">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M149" s="9">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>19</v>
       </c>
@@ -5784,37 +5784,37 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>-39077</v>
+        <v>8401</v>
       </c>
       <c r="F150" s="11">
-        <v>8401</v>
+        <v>-59377</v>
       </c>
       <c r="G150" s="11">
-        <v>-59377</v>
+        <v>-14919</v>
       </c>
       <c r="H150" s="11">
-        <v>-14919</v>
+        <v>-46193</v>
       </c>
       <c r="I150" s="11">
-        <v>-46193</v>
+        <v>-10079</v>
       </c>
       <c r="J150" s="11">
-        <v>-10079</v>
+        <v>-129266</v>
       </c>
       <c r="K150" s="11">
-        <v>-129266</v>
+        <v>-29703</v>
       </c>
       <c r="L150" s="11">
-        <v>-29703</v>
+        <v>-63689</v>
       </c>
       <c r="M150" s="11">
-        <v>-63689</v>
+        <v>40401</v>
       </c>
       <c r="N150" s="11">
-        <v>40401</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-32604</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>20</v>
       </c>
@@ -5823,37 +5823,37 @@
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
-        <v>101443</v>
+        <v>146126</v>
       </c>
       <c r="F151" s="9">
-        <v>146126</v>
+        <v>190990</v>
       </c>
       <c r="G151" s="9">
-        <v>190990</v>
+        <v>4677</v>
       </c>
       <c r="H151" s="9">
-        <v>4677</v>
+        <v>354214</v>
       </c>
       <c r="I151" s="9">
-        <v>354214</v>
+        <v>643151</v>
       </c>
       <c r="J151" s="9">
-        <v>643151</v>
+        <v>170129</v>
       </c>
       <c r="K151" s="9">
-        <v>170129</v>
+        <v>-1186</v>
       </c>
       <c r="L151" s="9">
-        <v>-1186</v>
+        <v>266133</v>
       </c>
       <c r="M151" s="9">
-        <v>266133</v>
+        <v>268724</v>
       </c>
       <c r="N151" s="9">
-        <v>268724</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>73639</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>23</v>
       </c>
@@ -5862,37 +5862,37 @@
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F152" s="11">
-        <v>15</v>
-      </c>
-      <c r="G152" s="11">
         <v>7</v>
       </c>
-      <c r="H152" s="11" t="s">
-        <v>22</v>
+      <c r="G152" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" s="11">
+        <v>23</v>
       </c>
       <c r="I152" s="11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J152" s="11">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K152" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L152" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M152" s="11">
-        <v>33</v>
+        <v>-33</v>
       </c>
       <c r="N152" s="11">
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>38</v>
       </c>
@@ -5906,8 +5906,8 @@
       <c r="F153" s="9">
         <v>0</v>
       </c>
-      <c r="G153" s="9">
-        <v>0</v>
+      <c r="G153" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>22</v>
@@ -5931,7 +5931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>24</v>
       </c>
@@ -5954,11 +5954,11 @@
       <c r="I154" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J154" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K154" s="11">
-        <v>0</v>
+      <c r="J154" s="11">
+        <v>0</v>
+      </c>
+      <c r="K154" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L154" s="11" t="s">
         <v>22</v>
@@ -5970,7 +5970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>25</v>
       </c>
@@ -5993,11 +5993,11 @@
       <c r="I155" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J155" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K155" s="9">
-        <v>0</v>
+      <c r="J155" s="9">
+        <v>0</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L155" s="9" t="s">
         <v>22</v>
@@ -6009,7 +6009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>26</v>
       </c>
@@ -6023,11 +6023,11 @@
       <c r="F156" s="11">
         <v>0</v>
       </c>
-      <c r="G156" s="11">
-        <v>0</v>
-      </c>
-      <c r="H156" s="11" t="s">
-        <v>22</v>
+      <c r="G156" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" s="11">
+        <v>0</v>
       </c>
       <c r="I156" s="11">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>30</v>
       </c>
@@ -6071,11 +6071,11 @@
       <c r="I157" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J157" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K157" s="9">
-        <v>0</v>
+      <c r="J157" s="9">
+        <v>0</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L157" s="9" t="s">
         <v>22</v>
@@ -6087,7 +6087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>31</v>
       </c>
@@ -6101,8 +6101,8 @@
       <c r="F158" s="11">
         <v>0</v>
       </c>
-      <c r="G158" s="11">
-        <v>0</v>
+      <c r="G158" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="H158" s="11" t="s">
         <v>22</v>
@@ -6126,7 +6126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>32</v>
       </c>
@@ -6149,23 +6149,23 @@
       <c r="I159" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J159" s="9" t="s">
-        <v>22</v>
+      <c r="J159" s="9">
+        <v>-239271</v>
       </c>
       <c r="K159" s="9">
-        <v>-239271</v>
+        <v>-3447</v>
       </c>
       <c r="L159" s="9">
-        <v>-3447</v>
+        <v>-122606</v>
       </c>
       <c r="M159" s="9">
-        <v>-122606</v>
+        <v>22879</v>
       </c>
       <c r="N159" s="9">
-        <v>22879</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-273863</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>34</v>
       </c>
@@ -6188,23 +6188,23 @@
       <c r="I160" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J160" s="11" t="s">
-        <v>22</v>
+      <c r="J160" s="11">
+        <v>-98563</v>
       </c>
       <c r="K160" s="11">
-        <v>-98563</v>
+        <v>0</v>
       </c>
       <c r="L160" s="11">
-        <v>0</v>
+        <v>-39862</v>
       </c>
       <c r="M160" s="11">
-        <v>-39862</v>
+        <v>-14580</v>
       </c>
       <c r="N160" s="11">
-        <v>-14580</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12749</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>46</v>
       </c>
@@ -6218,11 +6218,11 @@
       <c r="F161" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G161" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H161" s="9">
-        <v>0</v>
+      <c r="G161" s="9">
+        <v>0</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>22</v>
@@ -6243,41 +6243,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15">
-        <v>123641</v>
+        <v>411796</v>
       </c>
       <c r="F162" s="15">
-        <v>411796</v>
+        <v>154243</v>
       </c>
       <c r="G162" s="15">
-        <v>154243</v>
+        <v>137405</v>
       </c>
       <c r="H162" s="15">
-        <v>137405</v>
+        <v>362006</v>
       </c>
       <c r="I162" s="15">
-        <v>362006</v>
+        <v>959374</v>
       </c>
       <c r="J162" s="15">
-        <v>959374</v>
+        <v>-3988</v>
       </c>
       <c r="K162" s="15">
-        <v>-3988</v>
+        <v>178297</v>
       </c>
       <c r="L162" s="15">
-        <v>178297</v>
+        <v>166549</v>
       </c>
       <c r="M162" s="15">
-        <v>166549</v>
+        <v>1111166</v>
       </c>
       <c r="N162" s="15">
-        <v>1111166</v>
+        <v>106449</v>
       </c>
     </row>
   </sheetData>
